--- a/pivotTabla.xlsx
+++ b/pivotTabla.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\end user\OneDrive\Escritorio\LabFutbol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB45BC7-2D8B-4903-82B5-C43B2AFE927C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821335D1-3E0C-4594-8910-F5C6855AAA40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="0" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivotTabla" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Fernando Navarro</t>
   </si>
@@ -534,7 +545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -577,13 +588,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -619,6 +632,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -937,15 +951,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -974,181 +991,217 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C2">
-        <v>1.27</v>
-      </c>
-      <c r="D2">
-        <v>1.06</v>
-      </c>
-      <c r="E2">
-        <v>1.17</v>
-      </c>
-      <c r="F2">
-        <v>1.636363636</v>
-      </c>
-      <c r="G2">
-        <v>1.3684210530000001</v>
-      </c>
-      <c r="H2">
-        <v>0.6</v>
-      </c>
-      <c r="I2">
-        <v>1.1333333329999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <f>0.55*K2</f>
+        <v>25.821596244131456</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1.27*K2</f>
+        <v>59.624413145539904</v>
+      </c>
+      <c r="D2" s="2">
+        <f>1.06*K2</f>
+        <v>49.76525821596244</v>
+      </c>
+      <c r="E2" s="2">
+        <f>1.17*K2</f>
+        <v>54.929577464788728</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1.63*K2</f>
+        <v>76.525821596244128</v>
+      </c>
+      <c r="G2" s="2">
+        <f>1.36*K2</f>
+        <v>63.849765258215967</v>
+      </c>
+      <c r="H2" s="2">
+        <f>0.6*K2</f>
+        <v>28.16901408450704</v>
+      </c>
+      <c r="I2" s="2">
+        <f>1.13*K2</f>
+        <v>53.051643192488257</v>
+      </c>
+      <c r="K2">
+        <f>100/2.13</f>
+        <v>46.948356807511736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3">
+        <v>66</v>
+      </c>
+      <c r="F3" s="3">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3">
+        <v>58</v>
+      </c>
+      <c r="I3" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3">
+        <v>49</v>
+      </c>
+      <c r="G4" s="3">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3">
+        <v>71</v>
+      </c>
+      <c r="I4" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C5">
-        <v>1.27</v>
-      </c>
-      <c r="D5">
-        <v>1.06</v>
-      </c>
-      <c r="E5">
-        <v>1.17</v>
-      </c>
-      <c r="F5">
-        <v>0.68181818199999999</v>
-      </c>
-      <c r="G5">
-        <v>0.21052631599999999</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5">
-        <v>0.46666666699999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <f>0.55*K5</f>
+        <v>33.536585365853661</v>
+      </c>
+      <c r="C5" s="2">
+        <f>1.27*K5</f>
+        <v>77.439024390243901</v>
+      </c>
+      <c r="D5" s="2">
+        <f>1.06*K5</f>
+        <v>64.634146341463421</v>
+      </c>
+      <c r="E5" s="2">
+        <f>1.17*K5</f>
+        <v>71.341463414634148</v>
+      </c>
+      <c r="F5" s="2">
+        <f>0.681818182*K5</f>
+        <v>41.574279390243902</v>
+      </c>
+      <c r="G5" s="2">
+        <f>0.210526316*K5</f>
+        <v>12.836970487804878</v>
+      </c>
+      <c r="H5" s="2">
+        <f>0.2*K5</f>
+        <v>12.195121951219512</v>
+      </c>
+      <c r="I5" s="2">
+        <f>0.466666667*K5</f>
+        <v>28.455284573170729</v>
+      </c>
+      <c r="K5">
+        <f>100/1.64</f>
+        <v>60.975609756097562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1.6</v>
-      </c>
-      <c r="C6">
-        <v>1.8</v>
-      </c>
-      <c r="D6">
-        <v>1.17</v>
-      </c>
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-      <c r="F6">
-        <v>2.5909090909999999</v>
-      </c>
-      <c r="G6">
-        <v>1.3684210530000001</v>
-      </c>
-      <c r="H6">
-        <v>0.75</v>
-      </c>
-      <c r="I6">
-        <v>1.8666666670000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f>1.6*K6</f>
+        <v>52.287581699346404</v>
+      </c>
+      <c r="C6" s="2">
+        <f>1.8*K6</f>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="D6" s="2">
+        <f>1.17*K6</f>
+        <v>38.235294117647051</v>
+      </c>
+      <c r="E6" s="2">
+        <f>1.5*K6</f>
+        <v>49.019607843137251</v>
+      </c>
+      <c r="F6" s="2">
+        <f>2.590909091*K6</f>
+        <v>84.670231732026139</v>
+      </c>
+      <c r="G6" s="2">
+        <f>1.368421053*K6</f>
+        <v>44.719642254901956</v>
+      </c>
+      <c r="H6" s="2">
+        <f>0.75*K6</f>
+        <v>24.509803921568626</v>
+      </c>
+      <c r="I6" s="2">
+        <f>1.866666667*K6</f>
+        <v>61.002178660130717</v>
+      </c>
+      <c r="K6">
+        <f>100/3.06</f>
+        <v>32.679738562091501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>69</v>
+      </c>
+      <c r="E7" s="3">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3">
+        <v>69</v>
+      </c>
+      <c r="I7" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1177,123 +1230,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>87</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>80</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>86</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>86</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>85</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>84</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>88</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>51</v>
-      </c>
-      <c r="E10">
-        <v>41</v>
-      </c>
-      <c r="F10">
-        <v>64</v>
-      </c>
-      <c r="G10">
-        <v>41</v>
-      </c>
-      <c r="H10">
-        <v>51</v>
-      </c>
-      <c r="I10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f>43*K10</f>
+        <v>67.1875</v>
+      </c>
+      <c r="C10" s="2">
+        <f>35*K10</f>
+        <v>54.6875</v>
+      </c>
+      <c r="D10" s="2">
+        <f>51*K10</f>
+        <v>79.6875</v>
+      </c>
+      <c r="E10" s="2">
+        <f>41*K10</f>
+        <v>64.0625</v>
+      </c>
+      <c r="F10" s="2">
+        <f>64*K10</f>
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <f>41*K10</f>
+        <v>64.0625</v>
+      </c>
+      <c r="H10" s="2">
+        <f>51*K10</f>
+        <v>79.6875</v>
+      </c>
+      <c r="I10" s="2">
+        <f>37*K10</f>
+        <v>57.8125</v>
+      </c>
+      <c r="K10">
+        <f>100/64</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>64</v>
-      </c>
-      <c r="D11">
-        <v>74</v>
-      </c>
-      <c r="E11">
-        <v>56</v>
-      </c>
-      <c r="F11">
-        <v>82</v>
-      </c>
-      <c r="G11">
-        <v>70</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f>62*K11</f>
+        <v>75.609756097560975</v>
+      </c>
+      <c r="C11" s="2">
+        <f>64*K11</f>
+        <v>78.048780487804876</v>
+      </c>
+      <c r="D11" s="2">
+        <f>74*K11</f>
+        <v>90.243902439024382</v>
+      </c>
+      <c r="E11" s="2">
+        <f>56*K11</f>
+        <v>68.292682926829272</v>
+      </c>
+      <c r="F11" s="2">
+        <f>82*K11</f>
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <f>70*K11</f>
+        <v>85.365853658536579</v>
+      </c>
+      <c r="H11" s="2">
+        <f>66*K11</f>
+        <v>80.487804878048777</v>
+      </c>
+      <c r="I11" s="2">
+        <f>60*K11</f>
+        <v>73.170731707317074</v>
+      </c>
+      <c r="K11">
+        <f>100/82</f>
+        <v>1.2195121951219512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>46</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>23</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>28</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>23</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>27</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>21</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1322,36 +1399,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>53</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>67</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>25</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>50</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>44</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>67</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>57</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1380,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1409,61 +1486,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <f>17*K17</f>
+        <v>68</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <f>25*K17</f>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <f>18*K17</f>
+        <v>72</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <f>2*K17</f>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <f>17*K17</f>
+        <v>68</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <f>15*K17</f>
+        <v>60</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <f>6*K17</f>
+        <v>24</v>
       </c>
       <c r="I17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>15</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
+        <f>4*K17</f>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f>100/25</f>
         <v>4</v>
       </c>
     </row>
